--- a/Iot/IOT计划表.xlsx
+++ b/Iot/IOT计划表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b5af6f0aec86d7/工作/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HX/ProjectMgmt/Iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商业模式" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>The Business Model Canvas</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,6 +644,26 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>gong ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 开发框架</t>
+    <rPh sb="3" eb="4">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuang jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 开发规约</t>
+    <rPh sb="3" eb="4">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui yue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -18533,10 +18553,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18557,6 +18577,16 @@
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Iot/IOT计划表.xlsx
+++ b/Iot/IOT计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="商业模式" sheetId="1" r:id="rId1"/>
@@ -18492,7 +18492,7 @@
   </sheetPr>
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -18555,8 +18555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18602,7 +18602,7 @@
   </sheetPr>
   <dimension ref="B8:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>

--- a/Iot/IOT计划表.xlsx
+++ b/Iot/IOT计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商业模式" sheetId="1" r:id="rId1"/>
@@ -1002,16 +1002,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>18141</xdr:rowOff>
+      <xdr:rowOff>145141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>284200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>145142</xdr:rowOff>
+      <xdr:colOff>266057</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>72570</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1020,8 +1020,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1651000" y="18141"/>
-          <a:ext cx="6888200" cy="16224251"/>
+          <a:off x="1648985" y="145141"/>
+          <a:ext cx="6942628" cy="15534318"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5720000" cy="13630000"/>
         </a:xfrm>
@@ -17399,6 +17399,30 @@
                 </a:rPr>
                 <a:t>IoT </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="2667">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2667">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                </a:rPr>
+                <a:t>Schedule</a:t>
+              </a:r>
+              <a:endParaRPr sz="2667">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -17575,10 +17599,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>253999</xdr:rowOff>
     </xdr:from>
@@ -17588,106 +17612,105 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>119878</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="物联网解决方案中充当云网关的 Azure IoT 中心"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1130300" y="253999"/>
+          <a:ext cx="8509000" cy="5707879"/>
+          <a:chOff x="1130300" y="253999"/>
+          <a:chExt cx="8509000" cy="5707879"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2" descr="物联网解决方案中充当云网关的 Azure IoT 中心"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1435100" y="253999"/>
+            <a:ext cx="8204200" cy="5707879"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5562600" y="253999"/>
-          <a:ext cx="8204200" cy="5707879"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="椭圆 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5257800" y="4089400"/>
-          <a:ext cx="3022600" cy="1054100"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="椭圆 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1130300" y="4089400"/>
+            <a:ext cx="3022600" cy="1054100"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -18470,8 +18493,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18602,8 +18625,8 @@
   </sheetPr>
   <dimension ref="B8:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>

--- a/Iot/IOT计划表.xlsx
+++ b/Iot/IOT计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="商业模式" sheetId="1" r:id="rId1"/>
@@ -18170,8 +18170,8 @@
   </sheetPr>
   <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18208,7 +18208,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>42918</v>
+        <v>43102</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="21" x14ac:dyDescent="0.3">
@@ -18493,7 +18493,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
